--- a/web/toParse/699.xlsx
+++ b/web/toParse/699.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ED786A1-AA20-4F2D-8402-8DC51662456D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FB3C75A-431B-435E-8EBB-B900ED2147BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5055" yWindow="2625" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,25 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="280">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Фамилия, имя, отчество заемщика</t>
-  </si>
-  <si>
-    <t>Договор образовательного кредита (дата, номер)</t>
-  </si>
-  <si>
-    <t>Номер ПП по образовательному кредиту</t>
-  </si>
-  <si>
-    <t>Наименование банка</t>
-  </si>
-  <si>
-    <t>Месяц</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="274">
   <si>
     <t>Ишкин Алик Шамилевич</t>
   </si>
@@ -869,20 +851,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -944,65 +919,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal_F2_28" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -11700,10 +11638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11717,83 +11655,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1">
+        <f>VLOOKUP(B1,[1]Лист1!B$8:C$1308,2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5"/>
+      <c r="A2" s="1">
+        <f>VLOOKUP(B2,[1]Лист1!B$8:C$1308,2,0)</f>
+        <v>233</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="5"/>
+      <c r="A3" s="1">
+        <f>VLOOKUP(B3,[1]Лист1!B$8:C$1308,2,0)</f>
+        <v>64</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
+      <c r="A4" s="1">
+        <f>VLOOKUP(B4,[1]Лист1!B$8:C$1308,2,0)</f>
+        <v>64</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
+      <c r="A5" s="1">
+        <f>VLOOKUP(B5,[1]Лист1!B$8:C$1308,2,0)</f>
+        <v>64</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
+      <c r="A6" s="1">
+        <f>VLOOKUP(B6,[1]Лист1!B$8:C$1308,2,0)</f>
+        <v>64</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
+      <c r="A7" s="1">
+        <f>VLOOKUP(B7,[1]Лист1!B$8:C$1308,2,0)</f>
+        <v>64</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>VLOOKUP(B8,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -11802,19 +11819,19 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>VLOOKUP(B9,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -11823,19 +11840,19 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f>VLOOKUP(B10,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -11844,19 +11861,19 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>VLOOKUP(B11,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
@@ -11865,19 +11882,19 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>VLOOKUP(B12,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>64</v>
+        <v>220</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -11886,19 +11903,19 @@
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>VLOOKUP(B13,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>64</v>
+        <v>317</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
@@ -11907,19 +11924,19 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>VLOOKUP(B14,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
@@ -11928,19 +11945,19 @@
         <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>VLOOKUP(B15,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>69</v>
+        <v>235</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -11949,19 +11966,19 @@
         <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>VLOOKUP(B16,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>149</v>
+        <v>325</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
@@ -11970,19 +11987,19 @@
         <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>VLOOKUP(B17,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
@@ -11991,19 +12008,19 @@
         <v>1</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>VLOOKUP(B18,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
@@ -12012,19 +12029,19 @@
         <v>1</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f>VLOOKUP(B19,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>220</v>
+        <v>116</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
@@ -12033,19 +12050,19 @@
         <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>VLOOKUP(B20,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>317</v>
+        <v>116</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
@@ -12054,19 +12071,19 @@
         <v>1</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>VLOOKUP(B21,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
@@ -12075,19 +12092,19 @@
         <v>1</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f>VLOOKUP(B22,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>235</v>
+        <v>116</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
@@ -12096,19 +12113,19 @@
         <v>1</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f>VLOOKUP(B23,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>325</v>
+        <v>125</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
@@ -12117,19 +12134,19 @@
         <v>1</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f>VLOOKUP(B24,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -12138,19 +12155,19 @@
         <v>1</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f>VLOOKUP(B25,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
@@ -12159,19 +12176,19 @@
         <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>VLOOKUP(B26,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
@@ -12180,19 +12197,19 @@
         <v>1</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f>VLOOKUP(B27,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
@@ -12201,19 +12218,19 @@
         <v>1</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f>VLOOKUP(B28,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
@@ -12222,19 +12239,19 @@
         <v>1</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>VLOOKUP(B29,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D29" s="1">
         <v>3</v>
@@ -12243,19 +12260,19 @@
         <v>1</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f>VLOOKUP(B30,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D30" s="1">
         <v>3</v>
@@ -12264,19 +12281,19 @@
         <v>1</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f>VLOOKUP(B31,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
@@ -12285,19 +12302,19 @@
         <v>1</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f>VLOOKUP(B32,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D32" s="1">
         <v>3</v>
@@ -12306,19 +12323,19 @@
         <v>1</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f>VLOOKUP(B33,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D33" s="1">
         <v>3</v>
@@ -12327,19 +12344,19 @@
         <v>1</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f>VLOOKUP(B34,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D34" s="1">
         <v>3</v>
@@ -12348,19 +12365,19 @@
         <v>1</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f>VLOOKUP(B35,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D35" s="1">
         <v>3</v>
@@ -12369,19 +12386,19 @@
         <v>1</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f>VLOOKUP(B36,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D36" s="1">
         <v>3</v>
@@ -12390,19 +12407,19 @@
         <v>1</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f>VLOOKUP(B37,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D37" s="1">
         <v>3</v>
@@ -12411,19 +12428,19 @@
         <v>1</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f>VLOOKUP(B38,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D38" s="1">
         <v>3</v>
@@ -12432,19 +12449,19 @@
         <v>1</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f>VLOOKUP(B39,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
@@ -12453,19 +12470,19 @@
         <v>1</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f>VLOOKUP(B40,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>167</v>
+        <v>213</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -12474,19 +12491,19 @@
         <v>1</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f>VLOOKUP(B41,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D41" s="1">
         <v>3</v>
@@ -12495,19 +12512,19 @@
         <v>1</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f>VLOOKUP(B42,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D42" s="1">
         <v>3</v>
@@ -12516,19 +12533,19 @@
         <v>1</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f>VLOOKUP(B43,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D43" s="1">
         <v>3</v>
@@ -12537,19 +12554,19 @@
         <v>1</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f>VLOOKUP(B44,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
@@ -12558,19 +12575,19 @@
         <v>1</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f>VLOOKUP(B45,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
@@ -12579,19 +12596,19 @@
         <v>1</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f>VLOOKUP(B46,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1">
         <v>3</v>
@@ -12600,19 +12617,19 @@
         <v>1</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f>VLOOKUP(B47,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D47" s="1">
         <v>3</v>
@@ -12621,19 +12638,19 @@
         <v>1</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f>VLOOKUP(B48,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D48" s="1">
         <v>3</v>
@@ -12642,19 +12659,19 @@
         <v>1</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f>VLOOKUP(B49,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D49" s="1">
         <v>3</v>
@@ -12663,19 +12680,19 @@
         <v>1</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f>VLOOKUP(B50,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D50" s="1">
         <v>3</v>
@@ -12684,19 +12701,19 @@
         <v>1</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f>VLOOKUP(B51,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D51" s="1">
         <v>3</v>
@@ -12705,19 +12722,19 @@
         <v>1</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f>VLOOKUP(B52,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D52" s="1">
         <v>3</v>
@@ -12726,19 +12743,19 @@
         <v>1</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <f>VLOOKUP(B53,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D53" s="1">
         <v>3</v>
@@ -12747,19 +12764,19 @@
         <v>1</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <f>VLOOKUP(B54,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D54" s="1">
         <v>3</v>
@@ -12768,19 +12785,19 @@
         <v>1</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f>VLOOKUP(B55,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>219</v>
+        <v>112</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D55" s="1">
         <v>3</v>
@@ -12789,19 +12806,19 @@
         <v>1</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f>VLOOKUP(B56,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>219</v>
+        <v>112</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D56" s="1">
         <v>3</v>
@@ -12810,19 +12827,19 @@
         <v>1</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <f>VLOOKUP(B57,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>218</v>
+        <v>1411</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D57" s="1">
         <v>3</v>
@@ -12831,19 +12848,19 @@
         <v>1</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <f>VLOOKUP(B58,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>218</v>
+        <v>1411</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D58" s="1">
         <v>3</v>
@@ -12852,19 +12869,19 @@
         <v>1</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <f>VLOOKUP(B59,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>247</v>
+        <v>711</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D59" s="1">
         <v>3</v>
@@ -12873,19 +12890,19 @@
         <v>1</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <f>VLOOKUP(B60,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>106</v>
+        <v>711</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D60" s="1">
         <v>3</v>
@@ -12894,19 +12911,19 @@
         <v>1</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <f>VLOOKUP(B61,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>106</v>
+        <v>711</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D61" s="1">
         <v>3</v>
@@ -12915,19 +12932,19 @@
         <v>1</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <f>VLOOKUP(B62,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>112</v>
+        <v>689</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D62" s="1">
         <v>3</v>
@@ -12936,19 +12953,19 @@
         <v>1</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <f>VLOOKUP(B63,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D63" s="1">
         <v>3</v>
@@ -12957,19 +12974,19 @@
         <v>1</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <f>VLOOKUP(B64,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>1411</v>
+        <v>160</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D64" s="1">
         <v>3</v>
@@ -12978,19 +12995,19 @@
         <v>1</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <f>VLOOKUP(B65,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>1411</v>
+        <v>160</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D65" s="1">
         <v>3</v>
@@ -12999,19 +13016,19 @@
         <v>1</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <f>VLOOKUP(B66,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D66" s="1">
         <v>3</v>
@@ -13020,19 +13037,19 @@
         <v>1</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <f>VLOOKUP(B67,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>711</v>
+        <v>164</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D67" s="1">
         <v>3</v>
@@ -13041,19 +13058,19 @@
         <v>1</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <f>VLOOKUP(B68,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>711</v>
+        <v>164</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D68" s="1">
         <v>3</v>
@@ -13062,19 +13079,19 @@
         <v>1</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <f>VLOOKUP(B69,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>689</v>
+        <v>3062</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D69" s="1">
         <v>3</v>
@@ -13083,19 +13100,19 @@
         <v>1</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <f>VLOOKUP(B70,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>160</v>
+        <v>3062</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D70" s="1">
         <v>3</v>
@@ -13104,19 +13121,19 @@
         <v>1</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <f>VLOOKUP(B71,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>160</v>
+        <v>3062</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D71" s="1">
         <v>3</v>
@@ -13125,19 +13142,19 @@
         <v>1</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <f>VLOOKUP(B72,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>160</v>
+        <v>3062</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D72" s="1">
         <v>3</v>
@@ -13146,19 +13163,19 @@
         <v>1</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <f>VLOOKUP(B73,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>717</v>
+        <v>3062</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D73" s="1">
         <v>3</v>
@@ -13167,19 +13184,19 @@
         <v>1</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <f>VLOOKUP(B74,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>164</v>
+        <v>3062</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D74" s="1">
         <v>3</v>
@@ -13188,19 +13205,19 @@
         <v>1</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <f>VLOOKUP(B75,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>164</v>
+        <v>3062</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D75" s="1">
         <v>3</v>
@@ -13209,7 +13226,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -13218,10 +13235,10 @@
         <v>3062</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D76" s="1">
         <v>3</v>
@@ -13230,7 +13247,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -13239,10 +13256,10 @@
         <v>3062</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D77" s="1">
         <v>3</v>
@@ -13251,7 +13268,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -13260,10 +13277,10 @@
         <v>3062</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D78" s="1">
         <v>3</v>
@@ -13272,19 +13289,19 @@
         <v>1</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <f>VLOOKUP(B79,[1]Лист1!B$8:C$1308,2,0)</f>
         <v>3062</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D79" s="1">
         <v>3</v>
@@ -13293,19 +13310,19 @@
         <v>1</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <f>VLOOKUP(B80,[1]Лист1!B$8:C$1308,2,0)</f>
         <v>3062</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D80" s="1">
         <v>3</v>
@@ -13314,7 +13331,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -13323,10 +13340,10 @@
         <v>3062</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D81" s="1">
         <v>3</v>
@@ -13335,7 +13352,7 @@
         <v>1</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -13344,10 +13361,10 @@
         <v>3062</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D82" s="1">
         <v>3</v>
@@ -13356,7 +13373,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -13365,10 +13382,10 @@
         <v>3062</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D83" s="1">
         <v>3</v>
@@ -13377,7 +13394,7 @@
         <v>1</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -13386,10 +13403,10 @@
         <v>3062</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="D84" s="1">
         <v>3</v>
@@ -13398,7 +13415,7 @@
         <v>1</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -13407,10 +13424,10 @@
         <v>3062</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D85" s="1">
         <v>3</v>
@@ -13419,19 +13436,19 @@
         <v>1</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <f>VLOOKUP(B86,[1]Лист1!B$8:C$1308,2,0)</f>
         <v>3062</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D86" s="1">
         <v>3</v>
@@ -13440,7 +13457,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -13449,10 +13466,10 @@
         <v>3062</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D87" s="1">
         <v>3</v>
@@ -13461,7 +13478,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -13470,10 +13487,10 @@
         <v>3062</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D88" s="1">
         <v>3</v>
@@ -13482,7 +13499,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -13491,10 +13508,10 @@
         <v>3062</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D89" s="1">
         <v>3</v>
@@ -13503,7 +13520,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -13512,10 +13529,10 @@
         <v>3062</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D90" s="1">
         <v>3</v>
@@ -13524,7 +13541,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -13533,10 +13550,10 @@
         <v>3062</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D91" s="1">
         <v>3</v>
@@ -13545,7 +13562,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -13554,10 +13571,10 @@
         <v>3062</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="D92" s="1">
         <v>3</v>
@@ -13566,7 +13583,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -13575,10 +13592,10 @@
         <v>3062</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D93" s="1">
         <v>3</v>
@@ -13587,7 +13604,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -13596,10 +13613,10 @@
         <v>3062</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="D94" s="1">
         <v>3</v>
@@ -13608,7 +13625,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -13617,10 +13634,10 @@
         <v>3062</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D95" s="1">
         <v>3</v>
@@ -13629,7 +13646,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -13638,10 +13655,10 @@
         <v>3062</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D96" s="1">
         <v>3</v>
@@ -13650,7 +13667,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -13659,10 +13676,10 @@
         <v>3062</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D97" s="1">
         <v>3</v>
@@ -13671,7 +13688,7 @@
         <v>1</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -13680,10 +13697,10 @@
         <v>3062</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D98" s="1">
         <v>3</v>
@@ -13692,7 +13709,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -13701,10 +13718,10 @@
         <v>3062</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D99" s="1">
         <v>3</v>
@@ -13713,7 +13730,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -13722,10 +13739,10 @@
         <v>3062</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D100" s="1">
         <v>3</v>
@@ -13734,19 +13751,19 @@
         <v>1</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <f>VLOOKUP(B101,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>3062</v>
+        <v>154</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D101" s="1">
         <v>3</v>
@@ -13755,19 +13772,19 @@
         <v>1</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <f>VLOOKUP(B102,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>3062</v>
+        <v>154</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D102" s="1">
         <v>3</v>
@@ -13776,19 +13793,19 @@
         <v>1</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <f>VLOOKUP(B103,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>3062</v>
+        <v>154</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D103" s="1">
         <v>3</v>
@@ -13797,19 +13814,19 @@
         <v>1</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <f>VLOOKUP(B104,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>3062</v>
+        <v>938</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D104" s="1">
         <v>3</v>
@@ -13818,19 +13835,19 @@
         <v>1</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <f>VLOOKUP(B105,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>3062</v>
+        <v>704</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="D105" s="1">
         <v>3</v>
@@ -13839,19 +13856,19 @@
         <v>1</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <f>VLOOKUP(B106,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>3062</v>
+        <v>704</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D106" s="1">
         <v>3</v>
@@ -13860,19 +13877,19 @@
         <v>1</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <f>VLOOKUP(B107,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>3062</v>
+        <v>704</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D107" s="1">
         <v>3</v>
@@ -13881,19 +13898,19 @@
         <v>1</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <f>VLOOKUP(B108,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>154</v>
+        <v>704</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D108" s="1">
         <v>3</v>
@@ -13902,19 +13919,19 @@
         <v>1</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <f>VLOOKUP(B109,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>154</v>
+        <v>704</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D109" s="1">
         <v>3</v>
@@ -13923,19 +13940,19 @@
         <v>1</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <f>VLOOKUP(B110,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>154</v>
+        <v>704</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D110" s="1">
         <v>3</v>
@@ -13944,19 +13961,19 @@
         <v>1</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <f>VLOOKUP(B111,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>938</v>
+        <v>704</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D111" s="1">
         <v>3</v>
@@ -13965,19 +13982,19 @@
         <v>1</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <f>VLOOKUP(B112,[1]Лист1!B$8:C$1308,2,0)</f>
         <v>704</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D112" s="1">
         <v>3</v>
@@ -13986,19 +14003,19 @@
         <v>1</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <f>VLOOKUP(B113,[1]Лист1!B$8:C$1308,2,0)</f>
         <v>704</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D113" s="1">
         <v>3</v>
@@ -14007,7 +14024,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -14016,10 +14033,10 @@
         <v>704</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D114" s="1">
         <v>3</v>
@@ -14028,7 +14045,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -14037,10 +14054,10 @@
         <v>704</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D115" s="1">
         <v>3</v>
@@ -14049,7 +14066,7 @@
         <v>1</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -14058,10 +14075,10 @@
         <v>704</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D116" s="1">
         <v>3</v>
@@ -14070,7 +14087,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -14079,10 +14096,10 @@
         <v>704</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D117" s="1">
         <v>3</v>
@@ -14091,19 +14108,19 @@
         <v>1</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <f>VLOOKUP(B118,[1]Лист1!B$8:C$1308,2,0)</f>
         <v>704</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="D118" s="1">
         <v>3</v>
@@ -14112,19 +14129,19 @@
         <v>1</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <f>VLOOKUP(B119,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D119" s="1">
         <v>3</v>
@@ -14133,19 +14150,19 @@
         <v>1</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <f>VLOOKUP(B120,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D120" s="1">
         <v>3</v>
@@ -14154,19 +14171,19 @@
         <v>1</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <f>VLOOKUP(B121,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D121" s="1">
         <v>3</v>
@@ -14175,19 +14192,19 @@
         <v>1</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <f>VLOOKUP(B122,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>704</v>
+        <v>682</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D122" s="1">
         <v>3</v>
@@ -14196,19 +14213,19 @@
         <v>1</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <f>VLOOKUP(B123,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>704</v>
+        <v>158</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D123" s="1">
         <v>3</v>
@@ -14217,19 +14234,19 @@
         <v>1</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <f>VLOOKUP(B124,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>704</v>
+        <v>158</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D124" s="1">
         <v>3</v>
@@ -14238,19 +14255,19 @@
         <v>1</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <f>VLOOKUP(B125,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>704</v>
+        <v>174</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D125" s="1">
         <v>3</v>
@@ -14259,19 +14276,19 @@
         <v>1</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <f>VLOOKUP(B126,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>682</v>
+        <v>174</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D126" s="1">
         <v>3</v>
@@ -14280,19 +14297,19 @@
         <v>1</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <f>VLOOKUP(B127,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>682</v>
+        <v>174</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D127" s="1">
         <v>3</v>
@@ -14301,19 +14318,19 @@
         <v>1</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <f>VLOOKUP(B128,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>682</v>
+        <v>174</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D128" s="1">
         <v>3</v>
@@ -14322,19 +14339,19 @@
         <v>1</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <f>VLOOKUP(B129,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>682</v>
+        <v>174</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D129" s="1">
         <v>3</v>
@@ -14343,19 +14360,19 @@
         <v>1</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <f>VLOOKUP(B130,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D130" s="1">
         <v>3</v>
@@ -14364,19 +14381,19 @@
         <v>1</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <f>VLOOKUP(B131,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D131" s="1">
         <v>3</v>
@@ -14385,7 +14402,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -14394,10 +14411,10 @@
         <v>174</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D132" s="1">
         <v>3</v>
@@ -14406,19 +14423,19 @@
         <v>1</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <f>VLOOKUP(B133,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>174</v>
+        <v>708</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D133" s="1">
         <v>3</v>
@@ -14427,19 +14444,19 @@
         <v>1</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <f>VLOOKUP(B134,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>174</v>
+        <v>708</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D134" s="1">
         <v>3</v>
@@ -14448,19 +14465,19 @@
         <v>1</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <f>VLOOKUP(B135,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D135" s="1">
         <v>3</v>
@@ -14469,19 +14486,19 @@
         <v>1</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <f>VLOOKUP(B136,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D136" s="1">
         <v>3</v>
@@ -14490,19 +14507,19 @@
         <v>1</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <f>VLOOKUP(B137,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D137" s="1">
         <v>3</v>
@@ -14511,174 +14528,10 @@
         <v>1</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <f>VLOOKUP(B138,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>174</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D138" s="1">
-        <v>3</v>
-      </c>
-      <c r="E138" s="2">
-        <v>1</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <f>VLOOKUP(B139,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>174</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D139" s="1">
-        <v>3</v>
-      </c>
-      <c r="E139" s="2">
-        <v>1</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <f>VLOOKUP(B140,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>708</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D140" s="1">
-        <v>3</v>
-      </c>
-      <c r="E140" s="2">
-        <v>1</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <f>VLOOKUP(B141,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>708</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D141" s="1">
-        <v>3</v>
-      </c>
-      <c r="E141" s="2">
-        <v>1</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <f>VLOOKUP(B142,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>173</v>
-      </c>
-      <c r="B142" s="4" t="s">
         <v>273</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D142" s="1">
-        <v>3</v>
-      </c>
-      <c r="E142" s="2">
-        <v>1</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <f>VLOOKUP(B143,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>173</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D143" s="1">
-        <v>3</v>
-      </c>
-      <c r="E143" s="2">
-        <v>1</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <f>VLOOKUP(B144,[1]Лист1!B$8:C$1308,2,0)</f>
-        <v>173</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D144" s="1">
-        <v>3</v>
-      </c>
-      <c r="E144" s="2">
-        <v>1</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>279</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F1:F7"/>
-    <mergeCell ref="A1:A7"/>
-    <mergeCell ref="B1:B7"/>
-    <mergeCell ref="C1:C7"/>
-    <mergeCell ref="D1:D7"/>
-    <mergeCell ref="E1:E7"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B1:B7">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E7">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A7">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>